--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Chagas Disease.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Chagas Disease.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as calcinosis or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are characteristic of CREST syndrome and are not typically seen in Chagas Disease.</t>
+          <t>Type 2 Achalasia in CREST syndrome often presents with progressive dysphagia for both solids and liquids due to esophageal motility issues.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of travel to endemic areas for Chagas Disease</t>
+          <t>History of travel to or residence in endemic areas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Travel history to endemic regions is a strong indicator for Chagas Disease, which is not relevant for CREST syndrome.</t>
+          <t>Chagas Disease is endemic to certain regions, and a history of travel or residence in these areas is a strong indicator.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) with a history of esophageal dilation</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia due to esophageal motility issues is common in CREST syndrome with Type 2 Achalasia, while Chagas Disease typically presents with more generalized gastrointestinal symptoms.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not typically associated with Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cardiac symptoms such as arrhythmias or heart failure</t>
+          <t>Acute febrile illness with swelling at the site of infection</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chagas Disease often leads to specific cardiac complications, while CREST syndrome has different cardiac manifestations.</t>
+          <t>Chagas Disease can present with an acute phase characterized by fever and swelling at the site of the insect bite.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This vascular symptom is a hallmark of CREST syndrome and is not a feature of Chagas Disease.</t>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms like constipation or megacolon</t>
+          <t>Romana's sign</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These symptoms are more indicative of Chagas Disease, which affects the gastrointestinal tract more severely than CREST syndrome.</t>
+          <t>Romana's sign, unilateral periorbital swelling, is a classic sign of acute Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickening and tightening of the skin on fingers)</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a specific finding in CREST syndrome and is absent in Chagas Disease.</t>
+          <t>Telangiectasia, or small dilated blood vessels near the surface of the skin, is a feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chronic fatigue and malaise</t>
+          <t>Chronic gastrointestinal symptoms with megacolon</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These nonspecific symptoms are more commonly reported in Chagas Disease due to systemic involvement.</t>
+          <t>Chronic Chagas Disease can lead to gastrointestinal symptoms such as megacolon, which is not typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary complications are more common in CREST syndrome, whereas Chagas Disease primarily affects the heart and gastrointestinal tract.</t>
+          <t>Calcinosis, or calcium deposits in the skin, is a specific finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Positive serology for Trypanosoma cruzi</t>
+          <t>Cardiac symptoms such as arrhythmias or heart failure</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Serological tests confirming Chagas Disease are definitive and not applicable to CREST syndrome.</t>
+          <t>Chagas Disease often leads to cardiac complications, which are less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common feature of CREST syndrome, which is not present in Chagas Disease.</t>
+          <t>Scleroderma is a key component of CREST syndrome and is not associated with Chagas Disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of travel to endemic areas</t>
+          <t>History of travel to or residence in endemic areas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Travel to areas where Chagas Disease is endemic is a strong indicator for the disease.</t>
+          <t>Chagas Disease is endemic to certain regions, and a history of travel or residence there is a strong indicator.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently associated with CREST syndrome and is not a feature of Chagas Disease.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and not with Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of acute Chagas disease symptoms</t>
+          <t>History of cardiac arrhythmias</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acute symptoms such as fever and lymphadenopathy are indicative of Chagas Disease, not CREST syndrome.</t>
+          <t>Cardiac arrhythmias are more commonly associated with Chagas Disease due to its cardiac involvement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal dysmotility</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility, leading to Type 2 Achalasia, is characteristic of CREST syndrome but not typical in Chagas Disease.</t>
+          <t>Calcinosis is part of the CREST syndrome and is not seen in Chagas Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of heart disease or arrhythmias</t>
+          <t>History of megacolon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chagas Disease commonly leads to cardiac complications, which are not typical in CREST syndrome.</t>
+          <t>Megacolon is a common manifestation of Chagas Disease and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is less common in Chagas Disease.</t>
+          <t>Esophageal dysmotility is a feature of CREST syndrome, particularly with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal symptoms related to Chagas</t>
+          <t>History of megaesophagus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms such as megacolon are specific to Chagas Disease and not seen in CREST syndrome.</t>
+          <t>Megaesophagus is a classic finding in Chagas Disease, distinct from the esophageal involvement in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of calcinosis cutis</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific manifestation of CREST syndrome and is not seen in Chagas Disease.</t>
+          <t>Telangiectasia is a component of CREST syndrome and not associated with Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of positive serology for Trypanosoma cruzi</t>
+          <t>History of heart failure</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Positive serology confirms Chagas Disease, which is not relevant for CREST syndrome.</t>
+          <t>Heart failure due to cardiomyopathy is a common complication of Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -774,100 +774,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of travel to endemic areas for Chagas Disease</t>
+          <t>History of living in or traveling to South America</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Travel to regions where Chagas Disease is prevalent increases the likelihood of exposure.</t>
+          <t>Chagas Disease is endemic to South America, making this a strong risk factor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Living in non-endemic areas for Chagas Disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Such exposures are linked to the development of autoimmune diseases like CREST syndrome.</t>
+          <t>CREST syndrome is not related to geographic exposure, unlike Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of Chagas Disease</t>
+          <t>Exposure to triatomine bugs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chagas Disease can be familial due to genetic susceptibility and vector exposure.</t>
+          <t>Chagas Disease is transmitted by these bugs, so exposure is a strong risk factor.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of limited physical activity due to esophageal symptoms</t>
+          <t>No history of travel to South America</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Type 2 Achalasia often limit activities due to dysphagia, which is less common in Chagas Disease.</t>
+          <t>Chagas Disease is endemic to South America, so lack of travel history supports CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in activities that increase risk of vector exposure (e.g., living in rural areas)</t>
+          <t>Family history of Chagas Disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Living in areas where the Triatomine bug is prevalent increases risk for Chagas Disease.</t>
+          <t>Chagas Disease can cluster in families due to shared environmental exposure.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Involvement in activities with higher risk of autoimmune disorders</t>
+          <t>Occupation not involving exposure to triatomine bugs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certain lifestyle factors may predispose individuals to autoimmune conditions like CREST syndrome.</t>
+          <t>Chagas Disease is transmitted by triatomine bugs, so lack of exposure supports CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of blood transfusions in endemic regions</t>
+          <t>Living in rural areas of endemic countries</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chagas Disease can be transmitted through blood transfusions, especially in endemic areas.</t>
+          <t>Rural areas in endemic countries have higher exposure to vectors of Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of other family members with CREST syndrome</t>
+          <t>No known exposure to Trypanosoma cruzi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genetic predisposition may lead to multiple family members being affected by CREST syndrome.</t>
+          <t>Chagas Disease is caused by Trypanosoma cruzi, so no exposure supports CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Consumption of food contaminated with Trypanosoma cruzi</t>
+          <t>Participation in activities increasing exposure to Trypanosoma cruzi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eating food contaminated with the parasite can lead to Chagas Disease, which is not a risk factor for CREST syndrome.</t>
+          <t>Activities that increase exposure to the parasite favor Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -925,100 +925,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cardiomyopathy</t>
+          <t>Romana's sign</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chagas Disease is well-known for causing cardiomyopathy, which is not a feature of CREST syndrome.</t>
+          <t>Romana's sign is a classic finding in acute Chagas Disease and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of Chagas Disease.</t>
+          <t>Telangiectasia is a common finding in CREST syndrome and not associated with Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Megaesophagus</t>
+          <t>Hepatomegaly</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Megaesophagus is a classic manifestation of Chagas Disease, while Type 2 Achalasia is specific to CREST syndrome.</t>
+          <t>Hepatomegaly can occur in Chagas Disease due to organ involvement, not typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia due to esophageal motility issues is characteristic of Type 2 Achalasia in CREST syndrome.</t>
+          <t>Calcinosis is part of the CREST syndrome and not observed in Chagas Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lymphadenopathy</t>
+          <t>Splenomegaly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lymphadenopathy can occur in Chagas Disease due to the acute phase of infection, which is not seen in CREST syndrome.</t>
+          <t>Splenomegaly is associated with Chagas Disease and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome but is not a common finding in Chagas Disease.</t>
+          <t>Raynaud's phenomenon is frequently seen in CREST syndrome but not in Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hepatosplenomegaly</t>
+          <t>Chagoma</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hepatosplenomegaly can be present in Chagas Disease but is not associated with CREST syndrome.</t>
+          <t>Chagoma is a localized swelling seen in Chagas Disease, not present in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Skin thickening</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome and is not associated with Chagas Disease.</t>
+          <t>Skin thickening is characteristic of CREST syndrome and not typical in Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chagas' indeterminate form</t>
+          <t>Lymphadenopathy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The indeterminate form of Chagas Disease can present with few symptoms, which is not a feature of CREST syndrome.</t>
+          <t>Lymphadenopathy can occur in Chagas Disease, especially in the acute phase, and is not typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing decreased peristalsis and elevated lower esophageal sphincter (LES) pressure</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is commonly associated with CREST syndrome.</t>
+          <t>Anticentromere antibodies are commonly associated with CREST syndrome and are not typically found in Chagas Disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This is a definitive test for Chagas Disease, absent in CREST syndrome.</t>
+          <t>Serology positive for Trypanosoma cruzi is definitive for Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antinuclear antibodies (ANA) positivity with a speckled pattern</t>
+          <t>Esophageal manometry showing Type 2 Achalasia pattern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANA positivity is often found in CREST syndrome, distinguishing it from Chagas Disease.</t>
+          <t>Type 2 Achalasia pattern on esophageal manometry is characteristic of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) showing complete heart block</t>
+          <t>Megaesophagus on barium swallow</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Complete heart block is a common complication of Chagas Disease, not typically seen in CREST syndrome.</t>
+          <t>Megaesophagus is more commonly associated with Chagas Disease than with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calcinosis on imaging studies</t>
+          <t>Calcinosis on imaging</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is a common manifestation of CREST syndrome and is not typically seen in Chagas Disease.</t>
+          <t>Calcinosis is a feature of CREST syndrome and not seen in Chagas Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow showing dilated esophagus with decreased peristalsis</t>
+          <t>Cardiomegaly on chest X-ray</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While esophageal dilation can occur in both conditions, it is more pronounced in Chagas Disease due to its chronic nature.</t>
+          <t>Cardiomegaly is often seen in Chagas Disease due to cardiac involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension on echocardiogram</t>
+          <t>Pulmonary hypertension on echocardiogram</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension is associated with CREST syndrome and less common in Chagas Disease.</t>
+          <t>Pulmonary hypertension is associated with CREST syndrome and not typically with Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Xenodiagnosis showing presence of Trypanosoma cruzi</t>
+          <t>Right bundle branch block on ECG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This test confirms active Chagas Disease and is not relevant to CREST syndrome.</t>
+          <t>Right bundle branch block is a common cardiac finding in Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin biopsy showing dermal fibrosis</t>
+          <t>Sclerodactyly on skin biopsy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dermal fibrosis is a histological finding associated with CREST syndrome, not seen in Chagas Disease.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome and not present in Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Imaging showing megaesophagus</t>
+          <t>Apical aneurysm on echocardiogram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Megaesophagus is a classic finding in Chagas Disease, distinguishing it from CREST syndrome.</t>
+          <t>Apical aneurysm is a specific cardiac manifestation of Chagas Disease.</t>
         </is>
       </c>
     </row>
